--- a/DOW/tabelastest/tables2.xlsx
+++ b/DOW/tabelastest/tables2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">Salário Anual Bruto (Milhares de R$)</t>
   </si>
@@ -93,6 +93,36 @@
   </si>
   <si>
     <t xml:space="preserve">Freq. Acumulada Relativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salário Mensal Bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freq. Acumulada de Funcionários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freq. Relativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1700, 2900[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2900, 4100[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4100, 5300[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5300, 6500[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6500, 7700[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[7700, 8900[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[8900, 10100[</t>
   </si>
 </sst>
 </file>
@@ -209,7 +239,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,6 +272,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,7 +284,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +379,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -548,17 +582,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,97 +608,185 @@
       <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="10" t="n">
         <f aca="false">B2/B10</f>
         <v>0.125</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>0.26</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <f aca="false">F3-F2</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <f aca="false">(B4/B10)+C3</f>
         <v>0.39</v>
       </c>
+      <c r="E4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>64</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <f aca="false">F4-F3</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>0.51</v>
       </c>
+      <c r="E5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>93</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <f aca="false">F5-F4</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <f aca="false">(B6/B10)+C5</f>
         <v>0.655</v>
       </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <f aca="false">F6-F5</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>0.785</v>
       </c>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>132</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <f aca="false">F7-F6</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="13" t="n">
         <f aca="false">(B8/B10)+C7</f>
         <v>0.9</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>140</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <f aca="false">F8-F7</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="13" t="n">
         <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <f aca="false">SUM(G2:G8)</f>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/DOW/tabelastest/tables2.xlsx
+++ b/DOW/tabelastest/tables2.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel\Desktop\DOW\tabelastest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ProjetoDOW-main\DOW\tabelastest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68AD18F-8139-404E-A433-2191DBFFD740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3615" yWindow="2295" windowWidth="16200" windowHeight="9360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -132,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -805,11 +816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,112 +948,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11">
-        <v>39</v>
-      </c>
-      <c r="C14" s="11">
-        <f t="shared" ref="C14:C19" si="0">B14-B13</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11">
-        <v>64</v>
-      </c>
-      <c r="C15" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11">
-        <v>93</v>
-      </c>
-      <c r="C16" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11">
-        <v>115</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11">
-        <v>132</v>
-      </c>
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="11">
-        <v>140</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8">
-        <f>SUM(C13:C19)</f>
-        <v>140</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1051,4 +956,130 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D5D84-FD78-4F98-B800-860A4857E548}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11">
+        <f>B3-B2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11">
+        <f>B4-B3</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>93</v>
+      </c>
+      <c r="C5" s="11">
+        <f>B5-B4</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11">
+        <v>115</v>
+      </c>
+      <c r="C6" s="11">
+        <f>B6-B5</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="11">
+        <v>132</v>
+      </c>
+      <c r="C7" s="11">
+        <f>B7-B6</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11">
+        <v>140</v>
+      </c>
+      <c r="C8" s="11">
+        <f>B8-B7</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUM(C2:C8)</f>
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>